--- a/analysis/io/inputs/eia_heat_rates/Table_A6_Approximate_Heat_Rates_for_Electricity_-_and_Heat_Content_of_Electricity.xlsx
+++ b/analysis/io/inputs/eia_heat_rates/Table_A6_Approximate_Heat_Rates_for_Electricity_-_and_Heat_Content_of_Electricity.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kravi\Desktop\water-coordinate\analysis\io\inputs\eia_heat_rates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C9568-E77F-4C56-9D98-8280DBDE96EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="63390" yWindow="3480" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Annual Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Annual Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
   <si>
     <t>U.S. Energy Information Administration</t>
   </si>
@@ -68,59 +86,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -131,46 +130,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -460,60 +458,1541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1949</v>
+      </c>
+      <c r="E2">
+        <v>15033</v>
+      </c>
+      <c r="G2">
+        <v>15033</v>
+      </c>
+      <c r="H2">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1950</v>
+      </c>
+      <c r="E3">
+        <v>14030</v>
+      </c>
+      <c r="G3">
+        <v>14030</v>
+      </c>
+      <c r="H3">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1951</v>
+      </c>
+      <c r="E4">
+        <v>13641</v>
+      </c>
+      <c r="G4">
+        <v>13641</v>
+      </c>
+      <c r="H4">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1952</v>
+      </c>
+      <c r="E5">
+        <v>13361</v>
+      </c>
+      <c r="G5">
+        <v>13361</v>
+      </c>
+      <c r="H5">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1953</v>
+      </c>
+      <c r="E6">
+        <v>12889</v>
+      </c>
+      <c r="G6">
+        <v>12889</v>
+      </c>
+      <c r="H6">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1954</v>
+      </c>
+      <c r="E7">
+        <v>12180</v>
+      </c>
+      <c r="G7">
+        <v>12180</v>
+      </c>
+      <c r="H7">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1955</v>
+      </c>
+      <c r="E8">
+        <v>11699</v>
+      </c>
+      <c r="G8">
+        <v>11699</v>
+      </c>
+      <c r="H8">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1956</v>
+      </c>
+      <c r="E9">
+        <v>11456</v>
+      </c>
+      <c r="G9">
+        <v>11456</v>
+      </c>
+      <c r="H9">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1957</v>
+      </c>
+      <c r="E10">
+        <v>11365</v>
+      </c>
+      <c r="F10">
+        <v>11629</v>
+      </c>
+      <c r="G10">
+        <v>11365</v>
+      </c>
+      <c r="H10">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1958</v>
+      </c>
+      <c r="E11">
+        <v>11085</v>
+      </c>
+      <c r="F11">
+        <v>11629</v>
+      </c>
+      <c r="G11">
+        <v>11085</v>
+      </c>
+      <c r="H11">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1959</v>
+      </c>
+      <c r="E12">
+        <v>10970</v>
+      </c>
+      <c r="F12">
+        <v>11629</v>
+      </c>
+      <c r="G12">
+        <v>10970</v>
+      </c>
+      <c r="H12">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>1960</v>
+      </c>
+      <c r="E13">
+        <v>10760</v>
+      </c>
+      <c r="F13">
+        <v>11629</v>
+      </c>
+      <c r="G13">
+        <v>10760</v>
+      </c>
+      <c r="H13">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1961</v>
+      </c>
+      <c r="E14">
+        <v>10650</v>
+      </c>
+      <c r="F14">
+        <v>11629</v>
+      </c>
+      <c r="G14">
+        <v>10650</v>
+      </c>
+      <c r="H14">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>1962</v>
+      </c>
+      <c r="E15">
+        <v>10558</v>
+      </c>
+      <c r="F15">
+        <v>11629</v>
+      </c>
+      <c r="G15">
+        <v>10558</v>
+      </c>
+      <c r="H15">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>1963</v>
+      </c>
+      <c r="E16">
+        <v>10482</v>
+      </c>
+      <c r="F16">
+        <v>11877</v>
+      </c>
+      <c r="G16">
+        <v>10482</v>
+      </c>
+      <c r="H16">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>1964</v>
+      </c>
+      <c r="E17">
+        <v>10462</v>
+      </c>
+      <c r="F17">
+        <v>11912</v>
+      </c>
+      <c r="G17">
+        <v>10462</v>
+      </c>
+      <c r="H17">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1965</v>
+      </c>
+      <c r="E18">
+        <v>10453</v>
+      </c>
+      <c r="F18">
+        <v>11804</v>
+      </c>
+      <c r="G18">
+        <v>10453</v>
+      </c>
+      <c r="H18">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>1966</v>
+      </c>
+      <c r="E19">
+        <v>10415</v>
+      </c>
+      <c r="F19">
+        <v>11623</v>
+      </c>
+      <c r="G19">
+        <v>10415</v>
+      </c>
+      <c r="H19">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1967</v>
+      </c>
+      <c r="E20">
+        <v>10432</v>
+      </c>
+      <c r="F20">
+        <v>11555</v>
+      </c>
+      <c r="G20">
+        <v>10432</v>
+      </c>
+      <c r="H20">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>1968</v>
+      </c>
+      <c r="E21">
+        <v>10398</v>
+      </c>
+      <c r="F21">
+        <v>11297</v>
+      </c>
+      <c r="G21">
+        <v>10398</v>
+      </c>
+      <c r="H21">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>1969</v>
+      </c>
+      <c r="E22">
+        <v>10447</v>
+      </c>
+      <c r="F22">
+        <v>11037</v>
+      </c>
+      <c r="G22">
+        <v>10447</v>
+      </c>
+      <c r="H22">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>1970</v>
+      </c>
+      <c r="E23">
+        <v>10494</v>
+      </c>
+      <c r="F23">
+        <v>10977</v>
+      </c>
+      <c r="G23">
+        <v>10494</v>
+      </c>
+      <c r="H23">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>1971</v>
+      </c>
+      <c r="E24">
+        <v>10478</v>
+      </c>
+      <c r="F24">
+        <v>10837</v>
+      </c>
+      <c r="G24">
+        <v>10478</v>
+      </c>
+      <c r="H24">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>1972</v>
+      </c>
+      <c r="E25">
+        <v>10379</v>
+      </c>
+      <c r="F25">
+        <v>10792</v>
+      </c>
+      <c r="G25">
+        <v>10379</v>
+      </c>
+      <c r="H25">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>1973</v>
+      </c>
+      <c r="E26">
+        <v>10389</v>
+      </c>
+      <c r="F26">
+        <v>10903</v>
+      </c>
+      <c r="G26">
+        <v>10389</v>
+      </c>
+      <c r="H26">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>1974</v>
+      </c>
+      <c r="E27">
+        <v>10442</v>
+      </c>
+      <c r="F27">
+        <v>11161</v>
+      </c>
+      <c r="G27">
+        <v>10442</v>
+      </c>
+      <c r="H27">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>1975</v>
+      </c>
+      <c r="E28">
+        <v>10406</v>
+      </c>
+      <c r="F28">
+        <v>11013</v>
+      </c>
+      <c r="G28">
+        <v>10406</v>
+      </c>
+      <c r="H28">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>1976</v>
+      </c>
+      <c r="E29">
+        <v>10373</v>
+      </c>
+      <c r="F29">
+        <v>11047</v>
+      </c>
+      <c r="G29">
+        <v>10373</v>
+      </c>
+      <c r="H29">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>1977</v>
+      </c>
+      <c r="E30">
+        <v>10435</v>
+      </c>
+      <c r="F30">
+        <v>10769</v>
+      </c>
+      <c r="G30">
+        <v>10435</v>
+      </c>
+      <c r="H30">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>1978</v>
+      </c>
+      <c r="E31">
+        <v>10361</v>
+      </c>
+      <c r="F31">
+        <v>10941</v>
+      </c>
+      <c r="G31">
+        <v>10361</v>
+      </c>
+      <c r="H31">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>1979</v>
+      </c>
+      <c r="E32">
+        <v>10353</v>
+      </c>
+      <c r="F32">
+        <v>10879</v>
+      </c>
+      <c r="G32">
+        <v>10353</v>
+      </c>
+      <c r="H32">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>1980</v>
+      </c>
+      <c r="E33">
+        <v>10388</v>
+      </c>
+      <c r="F33">
+        <v>10908</v>
+      </c>
+      <c r="G33">
+        <v>10388</v>
+      </c>
+      <c r="H33">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>1981</v>
+      </c>
+      <c r="E34">
+        <v>10453</v>
+      </c>
+      <c r="F34">
+        <v>11030</v>
+      </c>
+      <c r="G34">
+        <v>10453</v>
+      </c>
+      <c r="H34">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>1982</v>
+      </c>
+      <c r="E35">
+        <v>10454</v>
+      </c>
+      <c r="F35">
+        <v>11073</v>
+      </c>
+      <c r="G35">
+        <v>10454</v>
+      </c>
+      <c r="H35">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>1983</v>
+      </c>
+      <c r="E36">
+        <v>10520</v>
+      </c>
+      <c r="F36">
+        <v>10905</v>
+      </c>
+      <c r="G36">
+        <v>10520</v>
+      </c>
+      <c r="H36">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>1984</v>
+      </c>
+      <c r="E37">
+        <v>10440</v>
+      </c>
+      <c r="F37">
+        <v>10843</v>
+      </c>
+      <c r="G37">
+        <v>10440</v>
+      </c>
+      <c r="H37">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>1985</v>
+      </c>
+      <c r="E38">
+        <v>10447</v>
+      </c>
+      <c r="F38">
+        <v>10622</v>
+      </c>
+      <c r="G38">
+        <v>10447</v>
+      </c>
+      <c r="H38">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E39">
+        <v>10446</v>
+      </c>
+      <c r="F39">
+        <v>10579</v>
+      </c>
+      <c r="G39">
+        <v>10446</v>
+      </c>
+      <c r="H39">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>1987</v>
+      </c>
+      <c r="E40">
+        <v>10419</v>
+      </c>
+      <c r="F40">
+        <v>10442</v>
+      </c>
+      <c r="G40">
+        <v>10419</v>
+      </c>
+      <c r="H40">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>1988</v>
+      </c>
+      <c r="E41">
+        <v>10324</v>
+      </c>
+      <c r="F41">
+        <v>10602</v>
+      </c>
+      <c r="G41">
+        <v>10324</v>
+      </c>
+      <c r="H41">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>1989</v>
+      </c>
+      <c r="E42">
+        <v>10432</v>
+      </c>
+      <c r="F42">
+        <v>10583</v>
+      </c>
+      <c r="G42">
+        <v>10432</v>
+      </c>
+      <c r="H42">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>1990</v>
+      </c>
+      <c r="E43">
+        <v>10402</v>
+      </c>
+      <c r="F43">
+        <v>10582</v>
+      </c>
+      <c r="G43">
+        <v>10402</v>
+      </c>
+      <c r="H43">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>1991</v>
+      </c>
+      <c r="E44">
+        <v>10436</v>
+      </c>
+      <c r="F44">
+        <v>10484</v>
+      </c>
+      <c r="G44">
+        <v>10436</v>
+      </c>
+      <c r="H44">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>1992</v>
+      </c>
+      <c r="E45">
+        <v>10342</v>
+      </c>
+      <c r="F45">
+        <v>10471</v>
+      </c>
+      <c r="G45">
+        <v>10342</v>
+      </c>
+      <c r="H45">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>1993</v>
+      </c>
+      <c r="E46">
+        <v>10309</v>
+      </c>
+      <c r="F46">
+        <v>10504</v>
+      </c>
+      <c r="G46">
+        <v>10309</v>
+      </c>
+      <c r="H46">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>1994</v>
+      </c>
+      <c r="E47">
+        <v>10316</v>
+      </c>
+      <c r="F47">
+        <v>10452</v>
+      </c>
+      <c r="G47">
+        <v>10316</v>
+      </c>
+      <c r="H47">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>1995</v>
+      </c>
+      <c r="E48">
+        <v>10312</v>
+      </c>
+      <c r="F48">
+        <v>10507</v>
+      </c>
+      <c r="G48">
+        <v>10312</v>
+      </c>
+      <c r="H48">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>1996</v>
+      </c>
+      <c r="E49">
+        <v>10340</v>
+      </c>
+      <c r="F49">
+        <v>10503</v>
+      </c>
+      <c r="G49">
+        <v>10340</v>
+      </c>
+      <c r="H49">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>1997</v>
+      </c>
+      <c r="E50">
+        <v>10213</v>
+      </c>
+      <c r="F50">
+        <v>10494</v>
+      </c>
+      <c r="G50">
+        <v>10213</v>
+      </c>
+      <c r="H50">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>1998</v>
+      </c>
+      <c r="E51">
+        <v>10197</v>
+      </c>
+      <c r="F51">
+        <v>10491</v>
+      </c>
+      <c r="G51">
+        <v>10197</v>
+      </c>
+      <c r="H51">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>1999</v>
+      </c>
+      <c r="E52">
+        <v>10226</v>
+      </c>
+      <c r="F52">
+        <v>10450</v>
+      </c>
+      <c r="G52">
+        <v>10226</v>
+      </c>
+      <c r="H52">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E53">
+        <v>10201</v>
+      </c>
+      <c r="F53">
+        <v>10429</v>
+      </c>
+      <c r="G53">
+        <v>10201</v>
+      </c>
+      <c r="H53">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B54">
+        <v>10378</v>
+      </c>
+      <c r="C54">
+        <v>10742</v>
+      </c>
+      <c r="D54">
+        <v>10051</v>
+      </c>
+      <c r="E54">
+        <v>10333</v>
+      </c>
+      <c r="F54">
+        <v>10443</v>
+      </c>
+      <c r="G54">
+        <v>10333</v>
+      </c>
+      <c r="H54">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B55">
+        <v>10314</v>
+      </c>
+      <c r="C55">
+        <v>10641</v>
+      </c>
+      <c r="D55">
+        <v>9533</v>
+      </c>
+      <c r="E55">
+        <v>10173</v>
+      </c>
+      <c r="F55">
+        <v>10442</v>
+      </c>
+      <c r="G55">
+        <v>10173</v>
+      </c>
+      <c r="H55">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B56">
+        <v>10297</v>
+      </c>
+      <c r="C56">
+        <v>10610</v>
+      </c>
+      <c r="D56">
+        <v>9207</v>
+      </c>
+      <c r="E56">
+        <v>10125</v>
+      </c>
+      <c r="F56">
+        <v>10422</v>
+      </c>
+      <c r="G56">
+        <v>10125</v>
+      </c>
+      <c r="H56">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B57">
+        <v>10331</v>
+      </c>
+      <c r="C57">
+        <v>10571</v>
+      </c>
+      <c r="D57">
+        <v>8647</v>
+      </c>
+      <c r="E57">
+        <v>10016</v>
+      </c>
+      <c r="F57">
+        <v>10428</v>
+      </c>
+      <c r="G57">
+        <v>10016</v>
+      </c>
+      <c r="H57">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B58">
+        <v>10373</v>
+      </c>
+      <c r="C58">
+        <v>10631</v>
+      </c>
+      <c r="D58">
+        <v>8551</v>
+      </c>
+      <c r="E58">
+        <v>9999</v>
+      </c>
+      <c r="F58">
+        <v>10436</v>
+      </c>
+      <c r="G58">
+        <v>9999</v>
+      </c>
+      <c r="H58">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B59">
+        <v>10351</v>
+      </c>
+      <c r="C59">
+        <v>10809</v>
+      </c>
+      <c r="D59">
+        <v>8471</v>
+      </c>
+      <c r="E59">
+        <v>9919</v>
+      </c>
+      <c r="F59">
+        <v>10435</v>
+      </c>
+      <c r="G59">
+        <v>9919</v>
+      </c>
+      <c r="H59">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B60">
+        <v>10375</v>
+      </c>
+      <c r="C60">
+        <v>10794</v>
+      </c>
+      <c r="D60">
+        <v>8403</v>
+      </c>
+      <c r="E60">
+        <v>9884</v>
+      </c>
+      <c r="F60">
+        <v>10489</v>
+      </c>
+      <c r="G60">
+        <v>9884</v>
+      </c>
+      <c r="H60">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B61">
+        <v>10378</v>
+      </c>
+      <c r="C61">
+        <v>11015</v>
+      </c>
+      <c r="D61">
+        <v>8305</v>
+      </c>
+      <c r="E61">
+        <v>9854</v>
+      </c>
+      <c r="F61">
+        <v>10452</v>
+      </c>
+      <c r="G61">
+        <v>9854</v>
+      </c>
+      <c r="H61">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B62">
+        <v>10414</v>
+      </c>
+      <c r="C62">
+        <v>10923</v>
+      </c>
+      <c r="D62">
+        <v>8160</v>
+      </c>
+      <c r="E62">
+        <v>9760</v>
+      </c>
+      <c r="F62">
+        <v>10459</v>
+      </c>
+      <c r="G62">
+        <v>9760</v>
+      </c>
+      <c r="H62">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B63">
+        <v>10415</v>
+      </c>
+      <c r="C63">
+        <v>10984</v>
+      </c>
+      <c r="D63">
+        <v>8185</v>
+      </c>
+      <c r="E63">
+        <v>9756</v>
+      </c>
+      <c r="F63">
+        <v>10452</v>
+      </c>
+      <c r="G63">
+        <v>9756</v>
+      </c>
+      <c r="H63">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B64">
+        <v>10444</v>
+      </c>
+      <c r="C64">
+        <v>10829</v>
+      </c>
+      <c r="D64">
+        <v>8152</v>
+      </c>
+      <c r="E64">
+        <v>9716</v>
+      </c>
+      <c r="F64">
+        <v>10464</v>
+      </c>
+      <c r="G64">
+        <v>9716</v>
+      </c>
+      <c r="H64">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B65">
+        <v>10498</v>
+      </c>
+      <c r="C65">
+        <v>10991</v>
+      </c>
+      <c r="D65">
+        <v>8039</v>
+      </c>
+      <c r="E65">
+        <v>9516</v>
+      </c>
+      <c r="F65">
+        <v>10479</v>
+      </c>
+      <c r="G65">
+        <v>9516</v>
+      </c>
+      <c r="H65">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B66">
+        <v>10459</v>
+      </c>
+      <c r="C66">
+        <v>10713</v>
+      </c>
+      <c r="D66">
+        <v>7948</v>
+      </c>
+      <c r="E66">
+        <v>9541</v>
+      </c>
+      <c r="F66">
+        <v>10449</v>
+      </c>
+      <c r="G66">
+        <v>9541</v>
+      </c>
+      <c r="H66">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B67">
+        <v>10428</v>
+      </c>
+      <c r="C67">
+        <v>10814</v>
+      </c>
+      <c r="D67">
+        <v>7907</v>
+      </c>
+      <c r="E67">
+        <v>9510</v>
+      </c>
+      <c r="F67">
+        <v>10459</v>
+      </c>
+      <c r="G67">
+        <v>9510</v>
+      </c>
+      <c r="H67">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B68">
+        <v>10495</v>
+      </c>
+      <c r="C68">
+        <v>10687</v>
+      </c>
+      <c r="D68">
+        <v>7878</v>
+      </c>
+      <c r="E68">
+        <v>9319</v>
+      </c>
+      <c r="F68">
+        <v>10458</v>
+      </c>
+      <c r="G68">
+        <v>9319</v>
+      </c>
+      <c r="H68">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B69">
+        <v>10493</v>
+      </c>
+      <c r="C69">
+        <v>10811</v>
+      </c>
+      <c r="D69">
+        <v>7870</v>
+      </c>
+      <c r="E69">
+        <v>9232</v>
+      </c>
+      <c r="F69">
+        <v>10459</v>
+      </c>
+      <c r="G69">
+        <v>9232</v>
+      </c>
+      <c r="H69">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B70">
+        <v>10465</v>
+      </c>
+      <c r="C70">
+        <v>10834</v>
+      </c>
+      <c r="D70">
+        <v>7812</v>
+      </c>
+      <c r="E70">
+        <v>9213</v>
+      </c>
+      <c r="F70">
+        <v>10459</v>
+      </c>
+      <c r="G70">
+        <v>9213</v>
+      </c>
+      <c r="H70">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B71">
+        <v>10481</v>
+      </c>
+      <c r="C71">
+        <v>11095</v>
+      </c>
+      <c r="D71">
+        <v>7821</v>
+      </c>
+      <c r="E71">
+        <v>9104</v>
+      </c>
+      <c r="F71">
+        <v>10455</v>
+      </c>
+      <c r="G71">
+        <v>9104</v>
+      </c>
+      <c r="H71">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B72">
+        <v>10551</v>
+      </c>
+      <c r="C72">
+        <v>11205</v>
+      </c>
+      <c r="D72">
+        <v>7732</v>
+      </c>
+      <c r="E72">
+        <v>8905</v>
+      </c>
+      <c r="F72">
+        <v>10442</v>
+      </c>
+      <c r="G72">
+        <v>8905</v>
+      </c>
+      <c r="H72">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B73">
+        <v>10655</v>
+      </c>
+      <c r="C73">
+        <v>11259</v>
+      </c>
+      <c r="D73">
+        <v>7732</v>
+      </c>
+      <c r="E73">
+        <v>8773</v>
+      </c>
+      <c r="F73">
+        <v>10446</v>
+      </c>
+      <c r="G73">
+        <v>8773</v>
+      </c>
+      <c r="H73">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B74">
+        <v>10655</v>
+      </c>
+      <c r="C74">
+        <v>11259</v>
+      </c>
+      <c r="D74">
+        <v>7732</v>
+      </c>
+      <c r="E74">
+        <v>8773</v>
+      </c>
+      <c r="F74">
+        <v>10446</v>
+      </c>
+      <c r="G74">
+        <v>8773</v>
+      </c>
+      <c r="H74">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B75">
+        <v>10655</v>
+      </c>
+      <c r="C75">
+        <v>11259</v>
+      </c>
+      <c r="D75">
+        <v>7732</v>
+      </c>
+      <c r="E75">
+        <v>8773</v>
+      </c>
+      <c r="F75">
+        <v>10446</v>
+      </c>
+      <c r="G75">
+        <v>8773</v>
+      </c>
+      <c r="H75">
+        <v>3412</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEE748B-F43F-46BB-ADF1-EB5778D71B47}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="103.974609" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="53.415527" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="51.273193" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="60.985107" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="63.127441" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="56.700439" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="74.838867" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="29.849854" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>Note: Information about data precision.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -539,7 +2018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -563,7 +2042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1949</v>
       </c>
@@ -589,7 +2068,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1950</v>
       </c>
@@ -615,7 +2094,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1951</v>
       </c>
@@ -641,7 +2120,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1952</v>
       </c>
@@ -667,7 +2146,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>1953</v>
       </c>
@@ -693,7 +2172,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1954</v>
       </c>
@@ -719,7 +2198,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1955</v>
       </c>
@@ -745,7 +2224,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>1956</v>
       </c>
@@ -771,7 +2250,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>1957</v>
       </c>
@@ -797,7 +2276,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>1958</v>
       </c>
@@ -823,7 +2302,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1959</v>
       </c>
@@ -849,7 +2328,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>1960</v>
       </c>
@@ -875,7 +2354,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>1961</v>
       </c>
@@ -901,7 +2380,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>1962</v>
       </c>
@@ -927,7 +2406,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>1963</v>
       </c>
@@ -953,7 +2432,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>1964</v>
       </c>
@@ -979,7 +2458,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>1965</v>
       </c>
@@ -1005,7 +2484,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1966</v>
       </c>
@@ -1031,7 +2510,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>1967</v>
       </c>
@@ -1057,7 +2536,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>1968</v>
       </c>
@@ -1083,7 +2562,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>1969</v>
       </c>
@@ -1109,7 +2588,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1970</v>
       </c>
@@ -1135,7 +2614,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>1971</v>
       </c>
@@ -1161,7 +2640,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>1972</v>
       </c>
@@ -1187,7 +2666,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>1973</v>
       </c>
@@ -1213,7 +2692,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>1974</v>
       </c>
@@ -1239,7 +2718,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>1975</v>
       </c>
@@ -1265,7 +2744,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>1976</v>
       </c>
@@ -1291,7 +2770,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>1977</v>
       </c>
@@ -1317,7 +2796,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>1978</v>
       </c>
@@ -1343,7 +2822,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>1979</v>
       </c>
@@ -1369,7 +2848,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>1980</v>
       </c>
@@ -1395,7 +2874,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>1981</v>
       </c>
@@ -1421,7 +2900,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>1982</v>
       </c>
@@ -1447,7 +2926,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>1983</v>
       </c>
@@ -1473,7 +2952,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>1984</v>
       </c>
@@ -1499,7 +2978,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>1985</v>
       </c>
@@ -1525,7 +3004,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>1986</v>
       </c>
@@ -1551,7 +3030,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>1987</v>
       </c>
@@ -1577,7 +3056,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>1988</v>
       </c>
@@ -1603,7 +3082,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>1989</v>
       </c>
@@ -1629,7 +3108,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>1990</v>
       </c>
@@ -1655,7 +3134,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>1991</v>
       </c>
@@ -1681,7 +3160,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>1992</v>
       </c>
@@ -1707,7 +3186,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>1993</v>
       </c>
@@ -1733,7 +3212,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>1994</v>
       </c>
@@ -1759,7 +3238,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>1995</v>
       </c>
@@ -1785,7 +3264,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>1996</v>
       </c>
@@ -1811,7 +3290,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>1997</v>
       </c>
@@ -1837,7 +3316,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>1998</v>
       </c>
@@ -1863,7 +3342,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>1999</v>
       </c>
@@ -1889,7 +3368,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>2000</v>
       </c>
@@ -1915,7 +3394,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>2001</v>
       </c>
@@ -1941,7 +3420,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>2002</v>
       </c>
@@ -1967,7 +3446,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>2003</v>
       </c>
@@ -1993,7 +3472,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>2004</v>
       </c>
@@ -2019,7 +3498,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>2005</v>
       </c>
@@ -2045,7 +3524,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>2006</v>
       </c>
@@ -2071,7 +3550,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>2007</v>
       </c>
@@ -2097,7 +3576,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>2008</v>
       </c>
@@ -2123,7 +3602,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>2009</v>
       </c>
@@ -2149,7 +3628,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>2010</v>
       </c>
@@ -2175,7 +3654,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2011</v>
       </c>
@@ -2201,7 +3680,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>2012</v>
       </c>
@@ -2227,7 +3706,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>2013</v>
       </c>
@@ -2253,7 +3732,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>2014</v>
       </c>
@@ -2279,7 +3758,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>2015</v>
       </c>
@@ -2305,7 +3784,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>2016</v>
       </c>
@@ -2331,7 +3810,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>2017</v>
       </c>
@@ -2357,7 +3836,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>2018</v>
       </c>
@@ -2383,7 +3862,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>2019</v>
       </c>
@@ -2409,7 +3888,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>2020</v>
       </c>
@@ -2435,7 +3914,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>2021</v>
       </c>
@@ -2461,7 +3940,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>2022</v>
       </c>
@@ -2488,20 +3967,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="A4" r:id="rId1" display="http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm" xr:uid="{9BE1EEE2-1068-47E3-965D-3B9A5063FDB1}"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>